--- a/易忘词汇.xlsx
+++ b/易忘词汇.xlsx
@@ -1,48 +1,722 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+  <si>
+    <t>周数</t>
+  </si>
+  <si>
+    <t>单词</t>
+  </si>
+  <si>
+    <t>词根</t>
+  </si>
+  <si>
+    <t>词根中文</t>
+  </si>
+  <si>
+    <t>词性</t>
+  </si>
+  <si>
+    <t>中文意思</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>facilitate</t>
+  </si>
+  <si>
+    <t>vt</t>
+  </si>
+  <si>
+    <t>促进;使便利</t>
+  </si>
+  <si>
+    <t>provision</t>
+  </si>
+  <si>
+    <t>n./n[C,U]./n[C].</t>
+  </si>
+  <si>
+    <t>提供,供给/准备/条款</t>
+  </si>
+  <si>
+    <t>confer</t>
+  </si>
+  <si>
+    <t>vi./vt.</t>
+  </si>
+  <si>
+    <t>商讨/授予，颁给(勋衔，学位等)</t>
+  </si>
+  <si>
+    <t>eliminate</t>
+  </si>
+  <si>
+    <t>vt.</t>
+  </si>
+  <si>
+    <t>排除;消除;淘汰</t>
+  </si>
+  <si>
+    <t>preliminary</t>
+  </si>
+  <si>
+    <t>a./n[C].</t>
+  </si>
+  <si>
+    <t>初步的/初步行动;预赛</t>
+  </si>
+  <si>
+    <t>superfluous</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>多余的,不必要的</t>
+  </si>
+  <si>
+    <t>supervise</t>
+  </si>
+  <si>
+    <t>监督;管理;指导</t>
+  </si>
+  <si>
+    <t>provoke</t>
+  </si>
+  <si>
+    <t>激怒;激起,引起,引发</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>n[C,U]./n[C].</t>
+  </si>
+  <si>
+    <t>程序,步骤;手术</t>
+  </si>
+  <si>
+    <t>peculiar</t>
+  </si>
+  <si>
+    <t>奇怪的;特有的;不适的</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>n[C]./n[U].</t>
+  </si>
+  <si>
+    <t>倡议;新方案/主动性</t>
+  </si>
+  <si>
+    <t>cognitive</t>
+  </si>
+  <si>
+    <t>认知的;认识的</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>n[C,U].</t>
+  </si>
+  <si>
+    <t>基础设施,基础建设</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>n[C]./a.</t>
+  </si>
+  <si>
+    <t>精英/出类拔萃的</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>n[C].</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>acquisition</t>
+  </si>
+  <si>
+    <t>获得/收购/获得物</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>n[U]./n[C,U]./n[C]./vt.</t>
+  </si>
+  <si>
+    <t>纪律/训练/学科/训练;管教</t>
+  </si>
+  <si>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t>有资格的;合格的;(作为结合对象)合适的</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>貌似合理的;花言巧语</t>
+  </si>
+  <si>
+    <t>implicit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. </t>
+  </si>
+  <si>
+    <t>含蓄的;隐含其中的;完全的;盲目的</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>v./vt.</t>
+  </si>
+  <si>
+    <t>(使)撤回,撤离/提,取;回收,撤销</t>
+  </si>
+  <si>
+    <t>therapy</t>
+  </si>
+  <si>
+    <t>治疗;疗法</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>a./v.</t>
+  </si>
+  <si>
+    <t>适度的;中等的;温和的/(使)减轻</t>
+  </si>
+  <si>
+    <t>inevitable</t>
+  </si>
+  <si>
+    <t>不可避免的;必然发生的</t>
+  </si>
+  <si>
+    <t>precede</t>
+  </si>
+  <si>
+    <t>发生再..之前,先于;走在..前面;在...之前</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>n[C,U]./n[U].</t>
+  </si>
+  <si>
+    <t>经济衰退退后</t>
+  </si>
+  <si>
+    <t>barely</t>
+  </si>
+  <si>
+    <t>ad.</t>
+  </si>
+  <si>
+    <t>勉强;几乎不,几乎没有</t>
+  </si>
+  <si>
+    <t>pension</t>
+  </si>
+  <si>
+    <t>n[C]./vt.</t>
+  </si>
+  <si>
+    <t>养老金;退休金;抚恤金/给予..养老金</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>大陆;洲</t>
+  </si>
+  <si>
+    <t>pursuit</t>
+  </si>
+  <si>
+    <t>追求;寻找;追踪/事业;消遣;爱好</t>
+  </si>
+  <si>
+    <t>executive</t>
+  </si>
+  <si>
+    <t>a./n[C]./n.</t>
+  </si>
+  <si>
+    <t>执行的;高级的/管理者/行政部门</t>
+  </si>
+  <si>
+    <t>demonstrate</t>
+  </si>
+  <si>
+    <t>vt./vi</t>
+  </si>
+  <si>
+    <t>证明;展示;示范/示威游行</t>
+  </si>
+  <si>
+    <t>sufficient</t>
+  </si>
+  <si>
+    <t>足够的;充足的</t>
+  </si>
+  <si>
+    <t>subtle</t>
+  </si>
+  <si>
+    <t>细微的,微妙的;巧妙的;敏锐的</t>
+  </si>
+  <si>
+    <t>psychology</t>
+  </si>
+  <si>
+    <t>n[U]./n.</t>
+  </si>
+  <si>
+    <t>心理学/心理;心理特征</t>
+  </si>
+  <si>
+    <t>constituent</t>
+  </si>
+  <si>
+    <t>成分;选民/组成的,构成的</t>
+  </si>
+  <si>
+    <t>prudent</t>
+  </si>
+  <si>
+    <t>谨慎的,慎重的;精明的</t>
+  </si>
+  <si>
+    <t>inherent</t>
+  </si>
+  <si>
+    <t>固有的;内在的</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F0909"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F0909"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F2EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +724,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1330,733 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>